--- a/case_study_results/Case_study_results.xlsx
+++ b/case_study_results/Case_study_results.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="FlowDict_Biomass" sheetId="1" r:id="rId1"/>
-    <sheet name="StockDict_Biomass" sheetId="2" r:id="rId2"/>
+    <sheet name="FlowDict_Good" sheetId="1" r:id="rId1"/>
+    <sheet name="StockDict_Good" sheetId="2" r:id="rId2"/>
     <sheet name="FlowDict_Carbon" sheetId="3" r:id="rId3"/>
     <sheet name="StockDict_Carbon" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -534,7 +534,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>5.000000000000004</v>
+        <v>4.999999999999996</v>
       </c>
       <c r="J2">
         <v>15</v>
@@ -584,7 +584,7 @@
         <v>11</v>
       </c>
       <c r="I3">
-        <v>5.500000000000005</v>
+        <v>5.499999999999996</v>
       </c>
       <c r="J3">
         <v>16.5</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="I4">
-        <v>6.000000000000005</v>
+        <v>5.999999999999996</v>
       </c>
       <c r="J4">
         <v>18</v>
@@ -684,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="I5">
-        <v>6.500000000000005</v>
+        <v>6.499999999999995</v>
       </c>
       <c r="J5">
         <v>19.5</v>
@@ -734,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="I6">
-        <v>7.000000000000006</v>
+        <v>6.999999999999995</v>
       </c>
       <c r="J6">
         <v>21</v>
@@ -784,7 +784,7 @@
         <v>15</v>
       </c>
       <c r="I7">
-        <v>7.500000000000007</v>
+        <v>7.499999999999994</v>
       </c>
       <c r="J7">
         <v>22.5</v>
@@ -834,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="I8">
-        <v>8.000000000000007</v>
+        <v>7.999999999999994</v>
       </c>
       <c r="J8">
         <v>24</v>
@@ -884,7 +884,7 @@
         <v>17</v>
       </c>
       <c r="I9">
-        <v>8.500000000000007</v>
+        <v>8.499999999999993</v>
       </c>
       <c r="J9">
         <v>25.5</v>
@@ -934,7 +934,7 @@
         <v>18</v>
       </c>
       <c r="I10">
-        <v>9.000000000000007</v>
+        <v>8.999999999999993</v>
       </c>
       <c r="J10">
         <v>27</v>
@@ -984,7 +984,7 @@
         <v>19</v>
       </c>
       <c r="I11">
-        <v>9.500000000000009</v>
+        <v>9.499999999999993</v>
       </c>
       <c r="J11">
         <v>28.5</v>
@@ -1034,7 +1034,7 @@
         <v>20</v>
       </c>
       <c r="I12">
-        <v>10.00000000000001</v>
+        <v>9.999999999999993</v>
       </c>
       <c r="J12">
         <v>30</v>
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.5000000000000004</v>
+        <v>0.4999999999999996</v>
       </c>
       <c r="J13">
         <v>1.5</v>
@@ -1134,7 +1134,7 @@
         <v>22</v>
       </c>
       <c r="I14">
-        <v>11.00000000000001</v>
+        <v>10.99999999999999</v>
       </c>
       <c r="J14">
         <v>33</v>
@@ -1184,7 +1184,7 @@
         <v>23</v>
       </c>
       <c r="I15">
-        <v>11.50000000000001</v>
+        <v>11.49999999999999</v>
       </c>
       <c r="J15">
         <v>34.5</v>
@@ -1234,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="I16">
-        <v>12.00000000000001</v>
+        <v>11.99999999999999</v>
       </c>
       <c r="J16">
         <v>36</v>
@@ -1284,7 +1284,7 @@
         <v>25</v>
       </c>
       <c r="I17">
-        <v>12.50000000000001</v>
+        <v>12.49999999999999</v>
       </c>
       <c r="J17">
         <v>37.5</v>
@@ -1334,7 +1334,7 @@
         <v>26</v>
       </c>
       <c r="I18">
-        <v>13.00000000000001</v>
+        <v>12.99999999999999</v>
       </c>
       <c r="J18">
         <v>39</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="I19">
-        <v>13.50000000000001</v>
+        <v>13.49999999999999</v>
       </c>
       <c r="J19">
         <v>40.5</v>
@@ -1434,7 +1434,7 @@
         <v>28</v>
       </c>
       <c r="I20">
-        <v>14.00000000000001</v>
+        <v>13.99999999999999</v>
       </c>
       <c r="J20">
         <v>42</v>
@@ -1484,7 +1484,7 @@
         <v>29</v>
       </c>
       <c r="I21">
-        <v>14.50000000000001</v>
+        <v>14.49999999999999</v>
       </c>
       <c r="J21">
         <v>43.5</v>
@@ -1534,7 +1534,7 @@
         <v>30</v>
       </c>
       <c r="I22">
-        <v>15.00000000000001</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="J22">
         <v>45</v>
@@ -1617,10 +1617,10 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <v>5.000000000000004</v>
+        <v>4.999999999999996</v>
       </c>
       <c r="E2">
-        <v>5.000000000000004</v>
+        <v>4.999999999999996</v>
       </c>
       <c r="F2">
         <v>25.5</v>
@@ -1652,10 +1652,10 @@
         <v>105</v>
       </c>
       <c r="D3">
-        <v>5.500000000000005</v>
+        <v>5.499999999999996</v>
       </c>
       <c r="E3">
-        <v>10.50000000000001</v>
+        <v>10.49999999999999</v>
       </c>
       <c r="F3">
         <v>19.83053950039515</v>
@@ -1687,10 +1687,10 @@
         <v>165</v>
       </c>
       <c r="D4">
-        <v>6.000000000000005</v>
+        <v>5.999999999999996</v>
       </c>
       <c r="E4">
-        <v>16.50000000000001</v>
+        <v>16.49999999999999</v>
       </c>
       <c r="F4">
         <v>18.71908938953868</v>
@@ -1722,10 +1722,10 @@
         <v>230</v>
       </c>
       <c r="D5">
-        <v>6.500000000000005</v>
+        <v>6.499999999999995</v>
       </c>
       <c r="E5">
-        <v>23.00000000000002</v>
+        <v>22.99999999999999</v>
       </c>
       <c r="F5">
         <v>19.10334079067908</v>
@@ -1757,10 +1757,10 @@
         <v>300</v>
       </c>
       <c r="D6">
-        <v>7.000000000000006</v>
+        <v>6.999999999999995</v>
       </c>
       <c r="E6">
-        <v>30.00000000000003</v>
+        <v>29.99999999999998</v>
       </c>
       <c r="F6">
         <v>20.045866601187</v>
@@ -1792,10 +1792,10 @@
         <v>375</v>
       </c>
       <c r="D7">
-        <v>7.500000000000007</v>
+        <v>7.499999999999994</v>
       </c>
       <c r="E7">
-        <v>37.50000000000004</v>
+        <v>37.49999999999997</v>
       </c>
       <c r="F7">
         <v>21.19676976082155</v>
@@ -1827,10 +1827,10 @@
         <v>455</v>
       </c>
       <c r="D8">
-        <v>8.000000000000007</v>
+        <v>7.999999999999994</v>
       </c>
       <c r="E8">
-        <v>45.50000000000004</v>
+        <v>45.49999999999996</v>
       </c>
       <c r="F8">
         <v>22.42545029821239</v>
@@ -1862,10 +1862,10 @@
         <v>540</v>
       </c>
       <c r="D9">
-        <v>8.500000000000007</v>
+        <v>8.499999999999993</v>
       </c>
       <c r="E9">
-        <v>54.00000000000005</v>
+        <v>53.99999999999996</v>
       </c>
       <c r="F9">
         <v>23.68316144049384</v>
@@ -1897,10 +1897,10 @@
         <v>630</v>
       </c>
       <c r="D10">
-        <v>9.000000000000007</v>
+        <v>8.999999999999993</v>
       </c>
       <c r="E10">
-        <v>63.00000000000006</v>
+        <v>62.99999999999995</v>
       </c>
       <c r="F10">
         <v>24.95170833019472</v>
@@ -1932,10 +1932,10 @@
         <v>725</v>
       </c>
       <c r="D11">
-        <v>9.500000000000009</v>
+        <v>9.499999999999993</v>
       </c>
       <c r="E11">
-        <v>72.50000000000007</v>
+        <v>72.49999999999994</v>
       </c>
       <c r="F11">
         <v>26.22429969029437</v>
@@ -1967,10 +1967,10 @@
         <v>825</v>
       </c>
       <c r="D12">
-        <v>10.00000000000001</v>
+        <v>9.999999999999993</v>
       </c>
       <c r="E12">
-        <v>82.50000000000009</v>
+        <v>82.49999999999994</v>
       </c>
       <c r="F12">
         <v>27.49840065929991</v>
@@ -2002,10 +2002,10 @@
         <v>830</v>
       </c>
       <c r="D13">
-        <v>0.5000000000000004</v>
+        <v>0.4999999999999996</v>
       </c>
       <c r="E13">
-        <v>83.00000000000009</v>
+        <v>82.99999999999994</v>
       </c>
       <c r="F13">
         <v>-22.2269349063149</v>
@@ -2037,10 +2037,10 @@
         <v>940</v>
       </c>
       <c r="D14">
-        <v>11.00000000000001</v>
+        <v>10.99999999999999</v>
       </c>
       <c r="E14">
-        <v>94.0000000000001</v>
+        <v>93.99999999999993</v>
       </c>
       <c r="F14">
         <v>46.48686084217203</v>
@@ -2072,10 +2072,10 @@
         <v>1055</v>
       </c>
       <c r="D15">
-        <v>11.50000000000001</v>
+        <v>11.49999999999999</v>
       </c>
       <c r="E15">
-        <v>105.5000000000001</v>
+        <v>105.4999999999999</v>
       </c>
       <c r="F15">
         <v>37.00190121460219</v>
@@ -2107,10 +2107,10 @@
         <v>1175</v>
       </c>
       <c r="D16">
-        <v>12.00000000000001</v>
+        <v>11.99999999999999</v>
       </c>
       <c r="E16">
-        <v>117.5000000000001</v>
+        <v>117.4999999999999</v>
       </c>
       <c r="F16">
         <v>34.7175799288155</v>
@@ -2142,10 +2142,10 @@
         <v>1300</v>
       </c>
       <c r="D17">
-        <v>12.50000000000001</v>
+        <v>12.49999999999999</v>
       </c>
       <c r="E17">
-        <v>130.0000000000001</v>
+        <v>129.9999999999999</v>
       </c>
       <c r="F17">
         <v>34.66405416840573</v>
@@ -2177,10 +2177,10 @@
         <v>1430</v>
       </c>
       <c r="D18">
-        <v>13.00000000000001</v>
+        <v>12.99999999999999</v>
       </c>
       <c r="E18">
-        <v>143.0000000000001</v>
+        <v>142.9999999999999</v>
       </c>
       <c r="F18">
         <v>35.4431785352842</v>
@@ -2212,10 +2212,10 @@
         <v>1565</v>
       </c>
       <c r="D19">
-        <v>13.50000000000001</v>
+        <v>13.49999999999999</v>
       </c>
       <c r="E19">
-        <v>156.5000000000001</v>
+        <v>156.4999999999999</v>
       </c>
       <c r="F19">
         <v>36.53309168875756</v>
@@ -2247,10 +2247,10 @@
         <v>1705</v>
       </c>
       <c r="D20">
-        <v>14.00000000000001</v>
+        <v>13.99999999999999</v>
       </c>
       <c r="E20">
-        <v>170.5000000000001</v>
+        <v>170.4999999999999</v>
       </c>
       <c r="F20">
         <v>37.73900755058055</v>
@@ -2282,10 +2282,10 @@
         <v>1850</v>
       </c>
       <c r="D21">
-        <v>14.50000000000001</v>
+        <v>14.49999999999999</v>
       </c>
       <c r="E21">
-        <v>185.0000000000001</v>
+        <v>184.9999999999999</v>
       </c>
       <c r="F21">
         <v>38.98822171956542</v>
@@ -2317,10 +2317,10 @@
         <v>2000</v>
       </c>
       <c r="D22">
-        <v>15.00000000000001</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="E22">
-        <v>200.0000000000002</v>
+        <v>199.9999999999999</v>
       </c>
       <c r="F22">
         <v>40.25359709228211</v>

--- a/case_study_results/Case_study_results.xlsx
+++ b/case_study_results/Case_study_results.xlsx
@@ -1,24 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68604DBE-A357-A84C-84DD-5C53E42EF25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432663C6-86C4-6049-9E07-3319E577682B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="25360" windowHeight="15480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FlowDict_Good" sheetId="1" r:id="rId1"/>
-    <sheet name="StockDict_Good" sheetId="2" r:id="rId2"/>
+    <sheet name="FlowDict_Biomass" sheetId="1" r:id="rId1"/>
+    <sheet name="StockDict_Biomass" sheetId="2" r:id="rId2"/>
     <sheet name="FlowDict_Carbon" sheetId="3" r:id="rId3"/>
     <sheet name="StockDict_Carbon" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -505,9 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1620,9 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2405,9 +2414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3518,11 +3525,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K6:K7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4296,18 +4301,6 @@
         <v>45.000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/case_study_results/Case_study_results.xlsx
+++ b/case_study_results/Case_study_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432663C6-86C4-6049-9E07-3319E577682B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA2967B-1765-B549-BE03-9EAC4D2ACD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31480" yWindow="2160" windowWidth="27860" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FlowDict_Biomass" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,7 @@
     <sheet name="FlowDict_Carbon" sheetId="3" r:id="rId3"/>
     <sheet name="StockDict_Carbon" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
